--- a/lab3/Graph.xlsx
+++ b/lab3/Graph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\link12\Dropbox\Code\csc391\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Code\csc391\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>CPU</t>
   </si>
@@ -32,10 +32,28 @@
     <t>GPU</t>
   </si>
   <si>
-    <t>*Histogram contains both numbers generated by X and Y</t>
+    <t>Input Size:</t>
   </si>
   <si>
-    <t>*Data generated by input size 500,000</t>
+    <t>*Histogram contains both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  numbers generated by X and Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Data are split into 3 graphs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  each to accurately show </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  distribution</t>
+  </si>
+  <si>
+    <t>Page1</t>
+  </si>
+  <si>
+    <t>Page 2</t>
   </si>
 </sst>
 </file>
@@ -71,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,6 +195,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>500,000</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -187,7 +210,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -226,7 +249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -274,11 +297,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="405073000"/>
-        <c:axId val="405071824"/>
+        <c:axId val="1721994592"/>
+        <c:axId val="1721996768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405073000"/>
+        <c:axId val="1721994592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405071824"/>
+        <c:crossAx val="1721996768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405071824"/>
+        <c:axId val="1721996768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405073000"/>
+        <c:crossAx val="1721994592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -518,6 +541,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -641,7 +696,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Series1</c:v>
+            <c:v>500,000</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -655,7 +710,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -694,7 +749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -742,11 +797,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="237648968"/>
-        <c:axId val="237646224"/>
+        <c:axId val="1721999488"/>
+        <c:axId val="1721997312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237648968"/>
+        <c:axId val="1721999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237646224"/>
+        <c:crossAx val="1721997312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237646224"/>
+        <c:axId val="1721997312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237648968"/>
+        <c:crossAx val="1721999488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,6 +1034,2038 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of Normalized Frequencies for GPU </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100,000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1725255680"/>
+        <c:axId val="2096252048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1725255680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Random Numbers </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Generated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36391748552092146"/>
+              <c:y val="0.88779060677847033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2096252048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2096252048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725255680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of Normalized Frequencies for GPU </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1,000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1879796208"/>
+        <c:axId val="1879796752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1879796208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Random Numbers </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Generated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36391748552092146"/>
+              <c:y val="0.88779060677847033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879796752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1879796752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879796208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of Normalized Frequencies for CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100,000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2094675520"/>
+        <c:axId val="2094689120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2094675520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Random Numbers </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Generated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36391748552092146"/>
+              <c:y val="0.88779060677847033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094689120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094689120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094675520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of Normalized Frequencies for CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1,000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2094673344"/>
+        <c:axId val="2094696192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2094673344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Random Numbers </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Generated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36391748552092146"/>
+              <c:y val="0.88779060677847033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094696192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094696192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094673344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1096,6 +3183,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1600,6 +3847,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2107,15 +6366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2136,16 +6395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2161,6 +6420,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2432,170 +6819,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>100044</v>
       </c>
-      <c r="D2">
+      <c r="C3">
+        <v>19970</v>
+      </c>
+      <c r="D3">
+        <v>181</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="G3">
         <v>100107</v>
       </c>
+      <c r="H3">
+        <v>19933</v>
+      </c>
+      <c r="I3">
+        <v>199</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0.1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>100109</v>
       </c>
-      <c r="D3">
+      <c r="C4">
+        <v>20389</v>
+      </c>
+      <c r="D4">
+        <v>193</v>
+      </c>
+      <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="G4">
         <v>100198</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
+      <c r="H4">
+        <v>20130</v>
+      </c>
+      <c r="I4">
+        <v>213</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>0.2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>100123</v>
       </c>
-      <c r="D4">
+      <c r="C5">
+        <v>19918</v>
+      </c>
+      <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="E4">
+      <c r="G5">
         <v>99853</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
+      <c r="H5">
+        <v>20044</v>
+      </c>
+      <c r="I5">
+        <v>199</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>99946</v>
       </c>
-      <c r="D5">
+      <c r="C6">
+        <v>19933</v>
+      </c>
+      <c r="D6">
+        <v>213</v>
+      </c>
+      <c r="F6">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="G6">
         <v>99946</v>
       </c>
+      <c r="H6">
+        <v>20083</v>
+      </c>
+      <c r="I6">
+        <v>188</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>99849</v>
       </c>
-      <c r="D6">
+      <c r="C7">
+        <v>19955</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="F7">
         <v>0.4</v>
       </c>
-      <c r="E6">
+      <c r="G7">
         <v>100149</v>
       </c>
+      <c r="H7">
+        <v>19825</v>
+      </c>
+      <c r="I7">
+        <v>164</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>0.5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>99856</v>
       </c>
-      <c r="D7">
+      <c r="C8">
+        <v>20116</v>
+      </c>
+      <c r="D8">
+        <v>168</v>
+      </c>
+      <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="E7">
+      <c r="G8">
         <v>99887</v>
       </c>
+      <c r="H8">
+        <v>20030</v>
+      </c>
+      <c r="I8">
+        <v>231</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>0.6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>100145</v>
       </c>
-      <c r="D8">
+      <c r="C9">
+        <v>20073</v>
+      </c>
+      <c r="D9">
+        <v>203</v>
+      </c>
+      <c r="F9">
         <v>0.6</v>
       </c>
-      <c r="E8">
+      <c r="G9">
         <v>100002</v>
       </c>
+      <c r="H9">
+        <v>20040</v>
+      </c>
+      <c r="I9">
+        <v>182</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>0.7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>100385</v>
       </c>
-      <c r="D9">
+      <c r="C10">
+        <v>19956</v>
+      </c>
+      <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="F10">
         <v>0.7</v>
       </c>
-      <c r="E9">
+      <c r="G10">
         <v>99938</v>
       </c>
+      <c r="H10">
+        <v>19926</v>
+      </c>
+      <c r="I10">
+        <v>203</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>0.8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>99930</v>
       </c>
-      <c r="D10">
+      <c r="C11">
+        <v>19826</v>
+      </c>
+      <c r="D11">
+        <v>207</v>
+      </c>
+      <c r="F11">
         <v>0.8</v>
       </c>
-      <c r="E10">
+      <c r="G11">
         <v>99800</v>
       </c>
+      <c r="H11">
+        <v>20088</v>
+      </c>
+      <c r="I11">
+        <v>217</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0.9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>99613</v>
       </c>
-      <c r="D11">
+      <c r="C12">
+        <v>19864</v>
+      </c>
+      <c r="D12">
+        <v>207</v>
+      </c>
+      <c r="F12">
         <v>0.9</v>
       </c>
-      <c r="E11">
+      <c r="G12">
         <v>100120</v>
+      </c>
+      <c r="H12">
+        <v>19901</v>
+      </c>
+      <c r="I12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="13:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="13:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>